--- a/assets/pdf/itinerary.xlsx
+++ b/assets/pdf/itinerary.xlsx
@@ -226,12 +226,12 @@
       <rPr>
         <b/>
       </rPr>
-      <t>Be Apartments Goldoni</t>
+      <t>Suitelowcost Sant'Agnese Suite</t>
     </r>
     <r>
       <t xml:space="preserve">
-Indirizzo: Via Goldoni, 38, Città Studi, 20129 Milano, Italia
-Telefono: +39 388 359 8154</t>
+Indirizzo: Via Sant'Agnese 16, Milano Centro, 20123 Milano, Italia
+Telefono: +39 02 9948 2176</t>
     </r>
   </si>
   <si>
